--- a/01_要求分析/システムテスト仕様書_07.xlsx
+++ b/01_要求分析/システムテスト仕様書_07.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Repitition1\01_要求分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46174D53-C2DF-4BEC-A31E-4060533933CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7264AC-E16B-4BCC-9D16-07D3EF4E2335}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="1470" windowWidth="13830" windowHeight="10050" xr2:uid="{471E8F79-A3D1-43EB-95A3-6DB613174624}"/>
+    <workbookView xWindow="-1185" yWindow="1560" windowWidth="12195" windowHeight="8820" xr2:uid="{471E8F79-A3D1-43EB-95A3-6DB613174624}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,42 +123,82 @@
 勝者が決まる場合</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ゲームを行う
+引き分けの場合</t>
+  </si>
+  <si>
+    <t>タイトル：三目並べゲームのテスト仕様書</t>
+    <rPh sb="5" eb="6">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>以下の手順で実行
 ●Tic-tac-toeのインスタンスを作成
 ●gameメソッドを実行
 ●順に(2, 2), (2, 1), (1, 1), (3, 1), (3, 3)を入力する</t>
-  </si>
-  <si>
-    <t>目視で確認
-「勝者：先攻」と表示された後に、ターン履歴が表示されている</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ゲームを行う
-引き分けの場合</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>以下の手順で実行
 ●Tic-tac-toeのインスタンスを作成
 ●gameメソッドを実行
 ●順に(2, 2), (1, 1), (1, 3), (3, 1), (2, 1), (2, 3), (1, 2), (3, 2), (3, 3)を入力する</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>目視で確認
-「引き分け」と表示された後に、ターン履歴が表示されている</t>
-  </si>
-  <si>
-    <t>タイトル：三目並べゲームのテスト仕様書</t>
-    <rPh sb="5" eb="6">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナラ</t>
+「勝者：先攻」と表示された後に、ターン履歴が表示されている
+表示
+勝者：先攻
+〇(2, 2)
+×(2, 1)
+〇(1, 1)
+×(3, 1)
+〇(3, 3)</t>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目視で確認
+「引き分け」と表示された後に、ターン履歴が表示されている
+表示
+引き分け
+〇(2, 2)
+×(1, 1)
+〇(1, 3)
+×(3, 1)
+〇(2, 1)
+×(2, 3)
+〇(1, 2)
+×(3, 2)
+〇(3, 3)</t>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -423,6 +463,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -435,12 +517,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,48 +524,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,18 +846,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B334667D-7296-4430-9C04-6407891E66A0}">
-  <dimension ref="B2:AS9"/>
+  <dimension ref="B2:AO9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:S7"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.375" customWidth="1"/>
+    <col min="14" max="15" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -858,404 +900,606 @@
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:41" x14ac:dyDescent="0.4">
+      <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+    </row>
+    <row r="4" spans="2:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+    </row>
+    <row r="5" spans="2:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+    </row>
+    <row r="6" spans="2:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+    </row>
+    <row r="7" spans="2:41" x14ac:dyDescent="0.4">
+      <c r="B7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="24"/>
+    </row>
+    <row r="8" spans="2:41" ht="190.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="7"/>
+    </row>
+    <row r="9" spans="2:41" ht="187.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-    </row>
-    <row r="4" spans="2:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-    </row>
-    <row r="5" spans="2:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-    </row>
-    <row r="6" spans="2:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-    </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="13"/>
-    </row>
-    <row r="8" spans="2:45" ht="48" x14ac:dyDescent="0.4">
-      <c r="B8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="20"/>
-    </row>
-    <row r="9" spans="2:45" ht="48.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23"/>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23"/>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="24"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B3:AO4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AH8:AK8"/>
     <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="E9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="E8:O8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="Z8:AC8"/>
     <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="B3:AS4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AP7:AS7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
+    <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ef71c9de-9867-437c-8375-3a1a59bfe133" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B38A522-4E34-4CD0-AC81-F043B6B3905C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B1D4F2F-CE17-4FFC-B1AB-AF2A44391AB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14DE96A3-8E39-49B1-BE01-5D472208613A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>